--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.62589810426531</v>
+        <v>4.018404666666666</v>
       </c>
       <c r="H2">
-        <v>3.62589810426531</v>
+        <v>12.055214</v>
       </c>
       <c r="I2">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="J2">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.479688797174043</v>
+        <v>0.5736516666666667</v>
       </c>
       <c r="N2">
-        <v>0.479688797174043</v>
+        <v>1.720955</v>
       </c>
       <c r="O2">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="P2">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="Q2">
-        <v>1.739302700310669</v>
+        <v>2.305164534374444</v>
       </c>
       <c r="R2">
-        <v>1.739302700310669</v>
+        <v>20.74648080937</v>
       </c>
       <c r="S2">
-        <v>0.0007005999184306264</v>
+        <v>0.0004782981295699332</v>
       </c>
       <c r="T2">
-        <v>0.0007005999184306264</v>
+        <v>0.0004782981295699331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.62589810426531</v>
+        <v>4.018404666666666</v>
       </c>
       <c r="H3">
-        <v>3.62589810426531</v>
+        <v>12.055214</v>
       </c>
       <c r="I3">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="J3">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.89803004157306</v>
+        <v>3.928236333333333</v>
       </c>
       <c r="N3">
-        <v>3.89803004157306</v>
+        <v>11.784709</v>
       </c>
       <c r="O3">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="P3">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="Q3">
-        <v>14.13385973810899</v>
+        <v>15.78524321363622</v>
       </c>
       <c r="R3">
-        <v>14.13385973810899</v>
+        <v>142.067188922726</v>
       </c>
       <c r="S3">
-        <v>0.005693190137553612</v>
+        <v>0.003275276966699278</v>
       </c>
       <c r="T3">
-        <v>0.005693190137553612</v>
+        <v>0.003275276966699278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.62589810426531</v>
+        <v>4.018404666666666</v>
       </c>
       <c r="H4">
-        <v>3.62589810426531</v>
+        <v>12.055214</v>
       </c>
       <c r="I4">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="J4">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.874570848595</v>
+        <v>205.3838603333334</v>
       </c>
       <c r="N4">
-        <v>184.874570848595</v>
+        <v>616.1515810000001</v>
       </c>
       <c r="O4">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863248</v>
       </c>
       <c r="P4">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863247</v>
       </c>
       <c r="Q4">
-        <v>670.3363559667833</v>
+        <v>825.3154628214816</v>
       </c>
       <c r="R4">
-        <v>670.3363559667833</v>
+        <v>7427.839165393335</v>
       </c>
       <c r="S4">
-        <v>0.2700148721827008</v>
+        <v>0.1712445408066203</v>
       </c>
       <c r="T4">
-        <v>0.2700148721827008</v>
+        <v>0.1712445408066202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.62589810426531</v>
+        <v>4.018404666666666</v>
       </c>
       <c r="H5">
-        <v>3.62589810426531</v>
+        <v>12.055214</v>
       </c>
       <c r="I5">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="J5">
-        <v>0.2793558965642211</v>
+        <v>0.1784894308593523</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.01792100086636</v>
+        <v>4.187343666666667</v>
       </c>
       <c r="N5">
-        <v>2.01792100086636</v>
+        <v>12.562031</v>
       </c>
       <c r="O5">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="P5">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="Q5">
-        <v>7.316775931598492</v>
+        <v>16.82644133107044</v>
       </c>
       <c r="R5">
-        <v>7.316775931598492</v>
+        <v>151.437971979634</v>
       </c>
       <c r="S5">
-        <v>0.002947234325536009</v>
+        <v>0.003491314956462847</v>
       </c>
       <c r="T5">
-        <v>0.002947234325536009</v>
+        <v>0.003491314956462846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.33654711829368</v>
+        <v>4.352037</v>
       </c>
       <c r="H6">
-        <v>4.33654711829368</v>
+        <v>13.056111</v>
       </c>
       <c r="I6">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="J6">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.479688797174043</v>
+        <v>0.5736516666666667</v>
       </c>
       <c r="N6">
-        <v>0.479688797174043</v>
+        <v>1.720955</v>
       </c>
       <c r="O6">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="P6">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="Q6">
-        <v>2.080193071062858</v>
+        <v>2.496553278445</v>
       </c>
       <c r="R6">
-        <v>2.080193071062858</v>
+        <v>22.468979506005</v>
       </c>
       <c r="S6">
-        <v>0.0008379122826902291</v>
+        <v>0.000518009341912755</v>
       </c>
       <c r="T6">
-        <v>0.0008379122826902291</v>
+        <v>0.0005180093419127549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.33654711829368</v>
+        <v>4.352037</v>
       </c>
       <c r="H7">
-        <v>4.33654711829368</v>
+        <v>13.056111</v>
       </c>
       <c r="I7">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="J7">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.89803004157306</v>
+        <v>3.928236333333333</v>
       </c>
       <c r="N7">
-        <v>3.89803004157306</v>
+        <v>11.784709</v>
       </c>
       <c r="O7">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="P7">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="Q7">
-        <v>16.90399094380585</v>
+        <v>17.095829867411</v>
       </c>
       <c r="R7">
-        <v>16.90399094380585</v>
+        <v>153.862468806699</v>
       </c>
       <c r="S7">
-        <v>0.006809012987944578</v>
+        <v>0.003547210330150015</v>
       </c>
       <c r="T7">
-        <v>0.006809012987944578</v>
+        <v>0.003547210330150015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.33654711829368</v>
+        <v>4.352037</v>
       </c>
       <c r="H8">
-        <v>4.33654711829368</v>
+        <v>13.056111</v>
       </c>
       <c r="I8">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="J8">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>184.874570848595</v>
+        <v>205.3838603333334</v>
       </c>
       <c r="N8">
-        <v>184.874570848595</v>
+        <v>616.1515810000001</v>
       </c>
       <c r="O8">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863248</v>
       </c>
       <c r="P8">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863247</v>
       </c>
       <c r="Q8">
-        <v>801.7172874592554</v>
+        <v>893.8381593734991</v>
       </c>
       <c r="R8">
-        <v>801.7172874592554</v>
+        <v>8044.543434361492</v>
       </c>
       <c r="S8">
-        <v>0.3229357754104856</v>
+        <v>0.1854623014502492</v>
       </c>
       <c r="T8">
-        <v>0.3229357754104856</v>
+        <v>0.1854623014502491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.33654711829368</v>
+        <v>4.352037</v>
       </c>
       <c r="H9">
-        <v>4.33654711829368</v>
+        <v>13.056111</v>
       </c>
       <c r="I9">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="J9">
-        <v>0.3341075709763735</v>
+        <v>0.1933087062267439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.01792100086636</v>
+        <v>4.187343666666667</v>
       </c>
       <c r="N9">
-        <v>2.01792100086636</v>
+        <v>12.562031</v>
       </c>
       <c r="O9">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="P9">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="Q9">
-        <v>8.750809501251313</v>
+        <v>18.223474569049</v>
       </c>
       <c r="R9">
-        <v>8.750809501251313</v>
+        <v>164.011271121441</v>
       </c>
       <c r="S9">
-        <v>0.003524870295253121</v>
+        <v>0.003781185104431916</v>
       </c>
       <c r="T9">
-        <v>0.003524870295253121</v>
+        <v>0.003781185104431916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.01704849445211</v>
+        <v>14.14296233333333</v>
       </c>
       <c r="H10">
-        <v>5.01704849445211</v>
+        <v>42.428887</v>
       </c>
       <c r="I10">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="J10">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.479688797174043</v>
+        <v>0.5736516666666667</v>
       </c>
       <c r="N10">
-        <v>0.479688797174043</v>
+        <v>1.720955</v>
       </c>
       <c r="O10">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="P10">
-        <v>0.002507911689165171</v>
+        <v>0.002679700009502673</v>
       </c>
       <c r="Q10">
-        <v>2.406621957667576</v>
+        <v>8.113133914120555</v>
       </c>
       <c r="R10">
-        <v>2.406621957667576</v>
+        <v>73.01820522708499</v>
       </c>
       <c r="S10">
-        <v>0.0009693994880443155</v>
+        <v>0.001683392538019985</v>
       </c>
       <c r="T10">
-        <v>0.0009693994880443155</v>
+        <v>0.001683392538019985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.01704849445211</v>
+        <v>14.14296233333333</v>
       </c>
       <c r="H11">
-        <v>5.01704849445211</v>
+        <v>42.428887</v>
       </c>
       <c r="I11">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="J11">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.89803004157306</v>
+        <v>3.928236333333333</v>
       </c>
       <c r="N11">
-        <v>3.89803004157306</v>
+        <v>11.784709</v>
       </c>
       <c r="O11">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="P11">
-        <v>0.02037970276473046</v>
+        <v>0.01834997708788796</v>
       </c>
       <c r="Q11">
-        <v>19.55660575140322</v>
+        <v>55.55689849876477</v>
       </c>
       <c r="R11">
-        <v>19.55660575140322</v>
+        <v>500.0120864888829</v>
       </c>
       <c r="S11">
-        <v>0.007877499639232271</v>
+        <v>0.01152748979103867</v>
       </c>
       <c r="T11">
-        <v>0.007877499639232271</v>
+        <v>0.01152748979103867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.01704849445211</v>
+        <v>14.14296233333333</v>
       </c>
       <c r="H12">
-        <v>5.01704849445211</v>
+        <v>42.428887</v>
       </c>
       <c r="I12">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="J12">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>184.874570848595</v>
+        <v>205.3838603333334</v>
       </c>
       <c r="N12">
-        <v>184.874570848595</v>
+        <v>616.1515810000001</v>
       </c>
       <c r="O12">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863248</v>
       </c>
       <c r="P12">
-        <v>0.9665622795279969</v>
+        <v>0.9594099772863247</v>
       </c>
       <c r="Q12">
-        <v>927.5246873384235</v>
+        <v>2904.736200568927</v>
       </c>
       <c r="R12">
-        <v>927.5246873384235</v>
+        <v>26142.62580512035</v>
       </c>
       <c r="S12">
-        <v>0.3736116319348105</v>
+        <v>0.6027031350294554</v>
       </c>
       <c r="T12">
-        <v>0.3736116319348105</v>
+        <v>0.6027031350294553</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.01704849445211</v>
+        <v>14.14296233333333</v>
       </c>
       <c r="H13">
-        <v>5.01704849445211</v>
+        <v>42.428887</v>
       </c>
       <c r="I13">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="J13">
-        <v>0.3865365324594054</v>
+        <v>0.6282018629139038</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.01792100086636</v>
+        <v>4.187343666666667</v>
       </c>
       <c r="N13">
-        <v>2.01792100086636</v>
+        <v>12.562031</v>
       </c>
       <c r="O13">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="P13">
-        <v>0.01055010601810751</v>
+        <v>0.01956034561628449</v>
       </c>
       <c r="Q13">
-        <v>10.12400751931987</v>
+        <v>59.22144375438855</v>
       </c>
       <c r="R13">
-        <v>10.12400751931987</v>
+        <v>532.9929937894969</v>
       </c>
       <c r="S13">
-        <v>0.004078001397318383</v>
+        <v>0.01228784555538973</v>
       </c>
       <c r="T13">
-        <v>0.004078001397318383</v>
+        <v>0.01228784555538973</v>
       </c>
     </row>
   </sheetData>
